--- a/Code/Results/Cases/Case_8_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020689621420924</v>
+        <v>1.015440138585141</v>
       </c>
       <c r="D2">
-        <v>1.035402842885738</v>
+        <v>1.030744271476756</v>
       </c>
       <c r="E2">
-        <v>1.023562439584881</v>
+        <v>1.019335978145784</v>
       </c>
       <c r="F2">
-        <v>1.025584920889306</v>
+        <v>1.023310909067098</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055116525591897</v>
+        <v>1.05203771558182</v>
       </c>
       <c r="J2">
-        <v>1.042268641096553</v>
+        <v>1.037168645056178</v>
       </c>
       <c r="K2">
-        <v>1.046390046029815</v>
+        <v>1.041791282355505</v>
       </c>
       <c r="L2">
-        <v>1.034702989069522</v>
+        <v>1.030532347554511</v>
       </c>
       <c r="M2">
-        <v>1.036698962881922</v>
+        <v>1.034454764400295</v>
       </c>
       <c r="N2">
-        <v>1.043748782116795</v>
+        <v>1.030437211044252</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03761715206386</v>
+        <v>1.035841010077352</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043872053000491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040629086739504</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022731422278275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025580010884116</v>
+        <v>1.019585106925232</v>
       </c>
       <c r="D3">
-        <v>1.038791275841756</v>
+        <v>1.03346454452856</v>
       </c>
       <c r="E3">
-        <v>1.027603134628866</v>
+        <v>1.022682688811366</v>
       </c>
       <c r="F3">
-        <v>1.029096200954471</v>
+        <v>1.026502887400291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056801400899679</v>
+        <v>1.05327752699705</v>
       </c>
       <c r="J3">
-        <v>1.045396823565902</v>
+        <v>1.039555736926044</v>
       </c>
       <c r="K3">
-        <v>1.048950754781988</v>
+        <v>1.043686422593118</v>
       </c>
       <c r="L3">
-        <v>1.037894602142974</v>
+        <v>1.033033338886121</v>
       </c>
       <c r="M3">
-        <v>1.039369848796953</v>
+        <v>1.036807527462919</v>
       </c>
       <c r="N3">
-        <v>1.046881406964058</v>
+        <v>1.031775555257591</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039730984562533</v>
+        <v>1.037703073990959</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045680029007692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041966174058405</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023179938856912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028672287997269</v>
+        <v>1.022212530118354</v>
       </c>
       <c r="D4">
-        <v>1.040936829960329</v>
+        <v>1.03519189742515</v>
       </c>
       <c r="E4">
-        <v>1.030162291637512</v>
+        <v>1.024809022010852</v>
       </c>
       <c r="F4">
-        <v>1.03132681993602</v>
+        <v>1.028534889239322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057855557510893</v>
+        <v>1.054052642057809</v>
       </c>
       <c r="J4">
-        <v>1.047369941978056</v>
+        <v>1.041064612452897</v>
       </c>
       <c r="K4">
-        <v>1.050565066873212</v>
+        <v>1.044883359451448</v>
       </c>
       <c r="L4">
-        <v>1.039909819009359</v>
+        <v>1.03461696794064</v>
       </c>
       <c r="M4">
-        <v>1.041061306355374</v>
+        <v>1.038300701985911</v>
       </c>
       <c r="N4">
-        <v>1.048857327430677</v>
+        <v>1.032621512548595</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041069659996744</v>
+        <v>1.038884825143215</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046822357613824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042813476501192</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023460582215843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029962975024356</v>
+        <v>1.023309546508705</v>
       </c>
       <c r="D5">
-        <v>1.041835831488678</v>
+        <v>1.035916509037335</v>
       </c>
       <c r="E5">
-        <v>1.031233391233208</v>
+        <v>1.025699365353463</v>
       </c>
       <c r="F5">
-        <v>1.032258173464907</v>
+        <v>1.029383597876989</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058295132817898</v>
+        <v>1.054375711171255</v>
       </c>
       <c r="J5">
-        <v>1.04819477367597</v>
+        <v>1.041695610624445</v>
       </c>
       <c r="K5">
-        <v>1.051241635518707</v>
+        <v>1.045385717054222</v>
       </c>
       <c r="L5">
-        <v>1.040753394706238</v>
+        <v>1.035280128490549</v>
       </c>
       <c r="M5">
-        <v>1.041767013295319</v>
+        <v>1.038923821495142</v>
       </c>
       <c r="N5">
-        <v>1.049683330484211</v>
+        <v>1.032975282643252</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04162817906669</v>
+        <v>1.039377983394552</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047307841892889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04317652204317</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023579179764126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030187644438216</v>
+        <v>1.023499235478928</v>
       </c>
       <c r="D6">
-        <v>1.041995750645857</v>
+        <v>1.036045134142303</v>
       </c>
       <c r="E6">
-        <v>1.031422292784527</v>
+        <v>1.025855083255103</v>
       </c>
       <c r="F6">
-        <v>1.032417851940126</v>
+        <v>1.029528341727852</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05837431195911</v>
+        <v>1.054433937247998</v>
       </c>
       <c r="J6">
-        <v>1.048341296128022</v>
+        <v>1.041807158020038</v>
       </c>
       <c r="K6">
-        <v>1.051364162201478</v>
+        <v>1.045476991308609</v>
       </c>
       <c r="L6">
-        <v>1.040904058528545</v>
+        <v>1.03539768640756</v>
       </c>
       <c r="M6">
-        <v>1.041888823231878</v>
+        <v>1.039030713568608</v>
       </c>
       <c r="N6">
-        <v>1.049830061014951</v>
+        <v>1.033037821761995</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041724583307358</v>
+        <v>1.039462581430768</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047403135567885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04325062201227</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023602449877754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028713796902815</v>
+        <v>1.022279897342388</v>
       </c>
       <c r="D7">
-        <v>1.040974869701385</v>
+        <v>1.035250419018377</v>
       </c>
       <c r="E7">
-        <v>1.030203314912757</v>
+        <v>1.024876970048056</v>
       </c>
       <c r="F7">
-        <v>1.031349760154922</v>
+        <v>1.028569019840852</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057877328675488</v>
+        <v>1.054088793373144</v>
       </c>
       <c r="J7">
-        <v>1.047404634094476</v>
+        <v>1.041124466884702</v>
       </c>
       <c r="K7">
-        <v>1.050599846701364</v>
+        <v>1.044938367557676</v>
       </c>
       <c r="L7">
-        <v>1.039947498440374</v>
+        <v>1.034681240336756</v>
       </c>
       <c r="M7">
-        <v>1.041081110493368</v>
+        <v>1.038331558414701</v>
       </c>
       <c r="N7">
-        <v>1.048892068813881</v>
+        <v>1.032706820330672</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041085333631592</v>
+        <v>1.038909245992206</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046866871250856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042874369041969</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023485626159147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022388903416124</v>
+        <v>1.016988017600955</v>
       </c>
       <c r="D8">
-        <v>1.036591137727412</v>
+        <v>1.031787997601465</v>
       </c>
       <c r="E8">
-        <v>1.02497444268131</v>
+        <v>1.020619621686237</v>
       </c>
       <c r="F8">
-        <v>1.026793884905024</v>
+        <v>1.024455392778099</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055713841873136</v>
+        <v>1.052541175573496</v>
       </c>
       <c r="J8">
-        <v>1.043367001722932</v>
+        <v>1.038114653578842</v>
       </c>
       <c r="K8">
-        <v>1.047297260880003</v>
+        <v>1.042553930667559</v>
       </c>
       <c r="L8">
-        <v>1.035826420690257</v>
+        <v>1.03152734698846</v>
       </c>
       <c r="M8">
-        <v>1.037622746583988</v>
+        <v>1.035313984211057</v>
       </c>
       <c r="N8">
-        <v>1.044848702541247</v>
+        <v>1.031124630940231</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038348267491299</v>
+        <v>1.036521029055529</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04453625300053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041193410083799</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022942366734098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010619908402141</v>
+        <v>1.007085249304882</v>
       </c>
       <c r="D9">
-        <v>1.028445645915277</v>
+        <v>1.025302535447613</v>
       </c>
       <c r="E9">
-        <v>1.015268784870641</v>
+        <v>1.012656113442759</v>
       </c>
       <c r="F9">
-        <v>1.018414278075209</v>
+        <v>1.016878790008599</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051587871871006</v>
+        <v>1.049518249527086</v>
       </c>
       <c r="J9">
-        <v>1.035803144506289</v>
+        <v>1.032390266343058</v>
       </c>
       <c r="K9">
-        <v>1.041093475332897</v>
+        <v>1.037998014719411</v>
       </c>
       <c r="L9">
-        <v>1.028118900461863</v>
+        <v>1.025547137850564</v>
       </c>
       <c r="M9">
-        <v>1.031215497722021</v>
+        <v>1.029703830159625</v>
       </c>
       <c r="N9">
-        <v>1.037274103779769</v>
+        <v>1.027934494450372</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033277326323601</v>
+        <v>1.032080929633415</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040146646787439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037968657157642</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021850179445255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002551331973345</v>
+        <v>1.000492065866783</v>
       </c>
       <c r="D10">
-        <v>1.022908032908192</v>
+        <v>1.021054602194437</v>
       </c>
       <c r="E10">
-        <v>1.0086849215144</v>
+        <v>1.007462137790912</v>
       </c>
       <c r="F10">
-        <v>1.012945326727448</v>
+        <v>1.012049628640394</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048746354967886</v>
+        <v>1.047533809690852</v>
       </c>
       <c r="J10">
-        <v>1.030664088846785</v>
+        <v>1.028686174413001</v>
       </c>
       <c r="K10">
-        <v>1.036875637747858</v>
+        <v>1.035053837680438</v>
       </c>
       <c r="L10">
-        <v>1.0228991177972</v>
+        <v>1.021697955554544</v>
       </c>
       <c r="M10">
-        <v>1.027084717892719</v>
+        <v>1.026204678932574</v>
       </c>
       <c r="N10">
-        <v>1.032127750071771</v>
+        <v>1.026089890222142</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030060019455696</v>
+        <v>1.02936356134892</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037181134068274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035905412261197</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021191778964585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000639427016195</v>
+        <v>0.9989737922310028</v>
       </c>
       <c r="D11">
-        <v>1.021794912358516</v>
+        <v>1.020277943380008</v>
       </c>
       <c r="E11">
-        <v>1.007477559147182</v>
+        <v>1.006581739249652</v>
       </c>
       <c r="F11">
-        <v>1.013386170870889</v>
+        <v>1.012666905988677</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048393954354906</v>
+        <v>1.047409287687393</v>
       </c>
       <c r="J11">
-        <v>1.029985629249602</v>
+        <v>1.028389325049912</v>
       </c>
       <c r="K11">
-        <v>1.036317189420832</v>
+        <v>1.034827318132248</v>
       </c>
       <c r="L11">
-        <v>1.022259824072115</v>
+        <v>1.02138059191585</v>
       </c>
       <c r="M11">
-        <v>1.028059983088785</v>
+        <v>1.027353832268388</v>
       </c>
       <c r="N11">
-        <v>1.031448326984139</v>
+        <v>1.026365985892415</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031271705415159</v>
+        <v>1.030713148266289</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036819053737198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035781269450328</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02136998274418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000487612092551</v>
+        <v>0.998775254657</v>
       </c>
       <c r="D12">
-        <v>1.021827199367492</v>
+        <v>1.02026778081605</v>
       </c>
       <c r="E12">
-        <v>1.007611381392111</v>
+        <v>1.006620021428488</v>
       </c>
       <c r="F12">
-        <v>1.014502916640876</v>
+        <v>1.013767421426533</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048569336323746</v>
+        <v>1.047559076130179</v>
       </c>
       <c r="J12">
-        <v>1.030271349626296</v>
+        <v>1.028631538503537</v>
       </c>
       <c r="K12">
-        <v>1.036547840864698</v>
+        <v>1.035016717681468</v>
       </c>
       <c r="L12">
-        <v>1.022594197845523</v>
+        <v>1.021621481854152</v>
       </c>
       <c r="M12">
-        <v>1.029357440184506</v>
+        <v>1.028635528574015</v>
       </c>
       <c r="N12">
-        <v>1.031734453116541</v>
+        <v>1.026693793269094</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032626465008428</v>
+        <v>1.032055637235246</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036982130958462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035915177953038</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021551204000364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001703282782741</v>
+        <v>0.999580788545735</v>
       </c>
       <c r="D13">
-        <v>1.022768547886021</v>
+        <v>1.020857113388056</v>
       </c>
       <c r="E13">
-        <v>1.008810427361577</v>
+        <v>1.007371717156166</v>
       </c>
       <c r="F13">
-        <v>1.01624404643544</v>
+        <v>1.015336310106494</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049182663180105</v>
+        <v>1.04793909477235</v>
       </c>
       <c r="J13">
-        <v>1.031343373108268</v>
+        <v>1.02931021477457</v>
       </c>
       <c r="K13">
-        <v>1.037429548187819</v>
+        <v>1.035552613203151</v>
       </c>
       <c r="L13">
-        <v>1.023727284163351</v>
+        <v>1.022315472195966</v>
       </c>
       <c r="M13">
-        <v>1.031023503648969</v>
+        <v>1.030132405042204</v>
       </c>
       <c r="N13">
-        <v>1.032807998994821</v>
+        <v>1.027031477647289</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03422179944863</v>
+        <v>1.033517371135756</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037603038800193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036291334472521</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021757721970942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003151964493252</v>
+        <v>1.000600140992204</v>
       </c>
       <c r="D14">
-        <v>1.023824082248121</v>
+        <v>1.021545824941188</v>
       </c>
       <c r="E14">
-        <v>1.010111737313209</v>
+        <v>1.008226528146886</v>
       </c>
       <c r="F14">
-        <v>1.017713644564496</v>
+        <v>1.016624979413361</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049799216037577</v>
+        <v>1.048311095194767</v>
       </c>
       <c r="J14">
-        <v>1.032429670965643</v>
+        <v>1.029983593099405</v>
       </c>
       <c r="K14">
-        <v>1.038326673873559</v>
+        <v>1.036088995978099</v>
       </c>
       <c r="L14">
-        <v>1.024862169817575</v>
+        <v>1.023011721635408</v>
       </c>
       <c r="M14">
-        <v>1.032325605616509</v>
+        <v>1.031256605682979</v>
       </c>
       <c r="N14">
-        <v>1.033895839519753</v>
+        <v>1.02727399927546</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035425030606083</v>
+        <v>1.034580082732625</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038238751427565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036672125800135</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021919586057185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003827490664475</v>
+        <v>1.001094435951905</v>
       </c>
       <c r="D15">
-        <v>1.024301266865657</v>
+        <v>1.021868754669469</v>
       </c>
       <c r="E15">
-        <v>1.010686214076391</v>
+        <v>1.008619864359481</v>
       </c>
       <c r="F15">
-        <v>1.018261114851219</v>
+        <v>1.017095735570115</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050059974636679</v>
+        <v>1.048468547129946</v>
       </c>
       <c r="J15">
-        <v>1.032891773097951</v>
+        <v>1.030270942117848</v>
       </c>
       <c r="K15">
-        <v>1.038709534842392</v>
+        <v>1.036320010493276</v>
       </c>
       <c r="L15">
-        <v>1.025338555136774</v>
+        <v>1.023309998356162</v>
       </c>
       <c r="M15">
-        <v>1.03277661676461</v>
+        <v>1.031632117484886</v>
       </c>
       <c r="N15">
-        <v>1.034358597890093</v>
+        <v>1.027355286368715</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03581915733079</v>
+        <v>1.034914557827073</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038515290977852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036841884463263</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021976577413969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006977784889314</v>
+        <v>1.003515340515249</v>
       </c>
       <c r="D16">
-        <v>1.026439747992903</v>
+        <v>1.023386625440398</v>
       </c>
       <c r="E16">
-        <v>1.013204289716916</v>
+        <v>1.010450845215963</v>
       </c>
       <c r="F16">
-        <v>1.020267565876104</v>
+        <v>1.018790825423332</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051143106510404</v>
+        <v>1.049134167785059</v>
       </c>
       <c r="J16">
-        <v>1.034841356440459</v>
+        <v>1.031513835209088</v>
       </c>
       <c r="K16">
-        <v>1.040312162627927</v>
+        <v>1.037310609784974</v>
       </c>
       <c r="L16">
-        <v>1.027303170333714</v>
+        <v>1.024597804641532</v>
       </c>
       <c r="M16">
-        <v>1.034244645397879</v>
+        <v>1.032793189788998</v>
       </c>
       <c r="N16">
-        <v>1.036310949864567</v>
+        <v>1.027649666821858</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036940654953617</v>
+        <v>1.03579340741051</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039651542423555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037545723519704</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022150948801147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00865318212828</v>
+        <v>1.004870490036714</v>
       </c>
       <c r="D17">
-        <v>1.027542103509924</v>
+        <v>1.024213958284381</v>
       </c>
       <c r="E17">
-        <v>1.014473151233805</v>
+        <v>1.011437790733064</v>
       </c>
       <c r="F17">
-        <v>1.021047228904967</v>
+        <v>1.019431557332882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051657674516892</v>
+        <v>1.049463405537769</v>
       </c>
       <c r="J17">
-        <v>1.035782845086529</v>
+        <v>1.032142780624292</v>
       </c>
       <c r="K17">
-        <v>1.041083859004645</v>
+        <v>1.037810343742239</v>
       </c>
       <c r="L17">
-        <v>1.028232084907738</v>
+        <v>1.025248202716461</v>
       </c>
       <c r="M17">
-        <v>1.034696020530079</v>
+        <v>1.033107248284255</v>
       </c>
       <c r="N17">
-        <v>1.037253775532504</v>
+        <v>1.027815448609285</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037168016768684</v>
+        <v>1.03591210685194</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040199726928773</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03790187923214</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022205348533996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009132227316785</v>
+        <v>1.005332073551434</v>
       </c>
       <c r="D18">
-        <v>1.027781314122439</v>
+        <v>1.024435891587531</v>
       </c>
       <c r="E18">
-        <v>1.014695785583937</v>
+        <v>1.011680539634335</v>
       </c>
       <c r="F18">
-        <v>1.02065976288519</v>
+        <v>1.019031528149981</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051681185264049</v>
+        <v>1.049474337900265</v>
       </c>
       <c r="J18">
-        <v>1.035854614775789</v>
+        <v>1.032195144056461</v>
       </c>
       <c r="K18">
-        <v>1.041137138215347</v>
+        <v>1.037845751565533</v>
       </c>
       <c r="L18">
-        <v>1.028265582128835</v>
+        <v>1.025300652341913</v>
       </c>
       <c r="M18">
-        <v>1.034131162674015</v>
+        <v>1.032529644382328</v>
       </c>
       <c r="N18">
-        <v>1.037325647142956</v>
+        <v>1.027762977553514</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036482914052517</v>
+        <v>1.035216663020714</v>
       </c>
       <c r="Q18">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040225822064637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037914177577363</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022122267481734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008504219082039</v>
+        <v>1.004940558014054</v>
       </c>
       <c r="D19">
-        <v>1.027232784061568</v>
+        <v>1.024088523442003</v>
       </c>
       <c r="E19">
-        <v>1.013958554859706</v>
+        <v>1.011213007086203</v>
       </c>
       <c r="F19">
-        <v>1.019111079390634</v>
+        <v>1.017576586287465</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051253952206461</v>
+        <v>1.049180450409144</v>
       </c>
       <c r="J19">
-        <v>1.035116980071715</v>
+        <v>1.031684663678419</v>
       </c>
       <c r="K19">
-        <v>1.040535322281383</v>
+        <v>1.037441634314493</v>
       </c>
       <c r="L19">
-        <v>1.027477342910136</v>
+        <v>1.024777435548971</v>
       </c>
       <c r="M19">
-        <v>1.03254506808538</v>
+        <v>1.031035713935692</v>
       </c>
       <c r="N19">
-        <v>1.036586964912994</v>
+        <v>1.02745374706221</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034901598984604</v>
+        <v>1.033707824220388</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03980668827952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037635463446304</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021912986098622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004726113794433</v>
+        <v>1.002141381876006</v>
       </c>
       <c r="D20">
-        <v>1.024424245600316</v>
+        <v>1.022120165507326</v>
       </c>
       <c r="E20">
-        <v>1.010480494603041</v>
+        <v>1.008742875917454</v>
       </c>
       <c r="F20">
-        <v>1.014407986957284</v>
+        <v>1.013284143484557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049537570227243</v>
+        <v>1.048023599950276</v>
       </c>
       <c r="J20">
-        <v>1.032076059517703</v>
+        <v>1.029590005681585</v>
       </c>
       <c r="K20">
-        <v>1.03805080236204</v>
+        <v>1.035784899072161</v>
       </c>
       <c r="L20">
-        <v>1.024341526956134</v>
+        <v>1.022633714955305</v>
       </c>
       <c r="M20">
-        <v>1.028202133673519</v>
+        <v>1.027097361011858</v>
       </c>
       <c r="N20">
-        <v>1.033541725902997</v>
+        <v>1.026401983580769</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030933688574929</v>
+        <v>1.030059366948648</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038053977199552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036468418989083</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021345943967493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982978014772687</v>
+        <v>0.9974870027015703</v>
       </c>
       <c r="D21">
-        <v>1.019980639629278</v>
+        <v>1.019192010354554</v>
       </c>
       <c r="E21">
-        <v>1.005178717492041</v>
+        <v>1.005200682625284</v>
       </c>
       <c r="F21">
-        <v>1.009733824404611</v>
+        <v>1.009380421911304</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047188260959375</v>
+        <v>1.046688394284029</v>
       </c>
       <c r="J21">
-        <v>1.027866863709659</v>
+        <v>1.027090168339814</v>
       </c>
       <c r="K21">
-        <v>1.034593108798393</v>
+        <v>1.033818683619927</v>
       </c>
       <c r="L21">
-        <v>1.020062637241038</v>
+        <v>1.020084191827644</v>
       </c>
       <c r="M21">
-        <v>1.024533103626788</v>
+        <v>1.024186232232772</v>
       </c>
       <c r="N21">
-        <v>1.029326552554104</v>
+        <v>1.02580864184558</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027988585685905</v>
+        <v>1.027714055303772</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03561251282405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035081798552775</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020994562195883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.994220297545121</v>
+        <v>0.9945258982935891</v>
       </c>
       <c r="D22">
-        <v>1.017169174296084</v>
+        <v>1.017336237990057</v>
       </c>
       <c r="E22">
-        <v>1.001833448012651</v>
+        <v>1.00296728536704</v>
       </c>
       <c r="F22">
-        <v>1.006900335342199</v>
+        <v>1.007033679800809</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045698643649723</v>
+        <v>1.045835524699232</v>
       </c>
       <c r="J22">
-        <v>1.025216280389526</v>
+        <v>1.025508249675526</v>
       </c>
       <c r="K22">
-        <v>1.032408010725696</v>
+        <v>1.032571909967203</v>
       </c>
       <c r="L22">
-        <v>1.017368671229464</v>
+        <v>1.01848018805213</v>
       </c>
       <c r="M22">
-        <v>1.02233632352842</v>
+        <v>1.022467074116753</v>
       </c>
       <c r="N22">
-        <v>1.02667220510163</v>
+        <v>1.025393655984403</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026249948446944</v>
+        <v>1.026353430863397</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034054072041116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034185483429882</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020778190822317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.996366220735079</v>
+        <v>0.9960276893405351</v>
       </c>
       <c r="D23">
-        <v>1.018639356129506</v>
+        <v>1.01825615338721</v>
       </c>
       <c r="E23">
-        <v>1.003585138196398</v>
+        <v>1.004072414673999</v>
       </c>
       <c r="F23">
-        <v>1.008396941021438</v>
+        <v>1.008249311608926</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046476652271096</v>
+        <v>1.046246514069228</v>
       </c>
       <c r="J23">
-        <v>1.026603490876992</v>
+        <v>1.026279601813955</v>
       </c>
       <c r="K23">
-        <v>1.033545914168809</v>
+        <v>1.033169780778238</v>
       </c>
       <c r="L23">
-        <v>1.018774732454061</v>
+        <v>1.019252673620029</v>
       </c>
       <c r="M23">
-        <v>1.023494866834436</v>
+        <v>1.023350032865534</v>
       </c>
       <c r="N23">
-        <v>1.028061385587104</v>
+        <v>1.025506331425741</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027166875790845</v>
+        <v>1.027052247232721</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03484898352138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034597626022597</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020858323134603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004628725999605</v>
+        <v>1.00208379799671</v>
       </c>
       <c r="D24">
-        <v>1.024326049356177</v>
+        <v>1.022055284484828</v>
       </c>
       <c r="E24">
-        <v>1.010357240385797</v>
+        <v>1.008665897234149</v>
       </c>
       <c r="F24">
-        <v>1.014178913032642</v>
+        <v>1.013071550869123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04946101392585</v>
+        <v>1.047969274335995</v>
       </c>
       <c r="J24">
-        <v>1.031949753845073</v>
+        <v>1.029501869113558</v>
       </c>
       <c r="K24">
-        <v>1.037939027688083</v>
+        <v>1.035705847133432</v>
       </c>
       <c r="L24">
-        <v>1.024204880250305</v>
+        <v>1.022542520104865</v>
       </c>
       <c r="M24">
-        <v>1.027961523802765</v>
+        <v>1.02687293919857</v>
       </c>
       <c r="N24">
-        <v>1.033415240861824</v>
+        <v>1.026344667379331</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030701993250949</v>
+        <v>1.029840439066197</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037947622472225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03638248379631</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021302871689174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013777912955794</v>
+        <v>1.009680597296275</v>
       </c>
       <c r="D25">
-        <v>1.030642704743043</v>
+        <v>1.027005527741166</v>
       </c>
       <c r="E25">
-        <v>1.017880909989618</v>
+        <v>1.014734100762165</v>
       </c>
       <c r="F25">
-        <v>1.020640805939012</v>
+        <v>1.01886242805913</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052717060444554</v>
+        <v>1.050318496893388</v>
       </c>
       <c r="J25">
-        <v>1.037850328560663</v>
+        <v>1.033886505748275</v>
       </c>
       <c r="K25">
-        <v>1.042783251742492</v>
+        <v>1.039198598548487</v>
       </c>
       <c r="L25">
-        <v>1.030207847315244</v>
+        <v>1.027107914894178</v>
       </c>
       <c r="M25">
-        <v>1.032926932370494</v>
+        <v>1.031174819374079</v>
       </c>
       <c r="N25">
-        <v>1.039324195070316</v>
+        <v>1.028707643885684</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034631824548175</v>
+        <v>1.033245131810975</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041369853232294</v>
+        <v>1.0388488484808</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02213859478436</v>
       </c>
     </row>
   </sheetData>
